--- a/data/STATS 23-24.xlsx
+++ b/data/STATS 23-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91AD56B-9B67-5940-8720-21253414B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38890EB2-F7F6-E046-91E4-6B9966EB4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
   <si>
     <t>Giocatore</t>
   </si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Gioffredi [R]</t>
   </si>
   <si>
     <t>Brighton</t>
@@ -1783,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X821"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5245,7 +5242,7 @@
       <c r="A96" s="7"/>
       <c r="B96" s="22"/>
       <c r="C96" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D96" s="21"/>
       <c r="E96" s="16"/>
@@ -5301,11 +5298,11 @@
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F98" s="20" t="s">
         <v>48</v>
@@ -5336,7 +5333,7 @@
       <c r="D99" s="7"/>
       <c r="E99" s="22"/>
       <c r="F99" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="21"/>
       <c r="H99" s="16"/>
@@ -5421,10 +5418,10 @@
       </c>
       <c r="D102" s="21"/>
       <c r="E102" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -5533,11 +5530,11 @@
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F106" s="20" t="s">
         <v>48</v>
@@ -5625,10 +5622,10 @@
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -5705,7 +5702,7 @@
     </row>
     <row r="112" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
@@ -5763,11 +5760,11 @@
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F114" s="20" t="s">
         <v>48</v>
@@ -5915,7 +5912,7 @@
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F119" s="20" t="s">
         <v>48</v>
@@ -6003,10 +6000,10 @@
       </c>
       <c r="D122" s="21"/>
       <c r="E122" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
@@ -6059,7 +6056,7 @@
       <c r="A124" s="7"/>
       <c r="B124" s="22"/>
       <c r="C124" s="20" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D124" s="21"/>
       <c r="E124" s="16"/>
@@ -6115,11 +6112,11 @@
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F126" s="20" t="s">
         <v>48</v>
@@ -6206,7 +6203,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="22"/>
       <c r="F129" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G129" s="21"/>
       <c r="H129" s="16"/>
@@ -6234,7 +6231,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="22"/>
       <c r="F130" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G130" s="21"/>
       <c r="H130" s="16"/>
@@ -6291,10 +6288,10 @@
       </c>
       <c r="D132" s="21"/>
       <c r="E132" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
@@ -6379,7 +6376,7 @@
       </c>
       <c r="D135" s="21"/>
       <c r="E135" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>82</v>
@@ -6467,7 +6464,7 @@
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F138" s="20" t="s">
         <v>48</v>
@@ -6498,7 +6495,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="22"/>
       <c r="F139" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G139" s="21"/>
       <c r="H139" s="16"/>
@@ -6526,7 +6523,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="22"/>
       <c r="F140" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G140" s="21"/>
       <c r="H140" s="16"/>
@@ -6554,7 +6551,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="22"/>
       <c r="F141" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="16"/>
@@ -6607,11 +6604,11 @@
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F143" s="20" t="s">
         <v>48</v>
@@ -6723,11 +6720,11 @@
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F147" s="20" t="s">
         <v>48</v>
@@ -6815,10 +6812,10 @@
       </c>
       <c r="D150" s="21"/>
       <c r="E150" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -6843,7 +6840,7 @@
       <c r="A151" s="7"/>
       <c r="B151" s="22"/>
       <c r="C151" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D151" s="21"/>
       <c r="E151" s="16"/>
@@ -6927,11 +6924,11 @@
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F154" s="20" t="s">
         <v>48</v>
@@ -6990,7 +6987,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="22"/>
       <c r="F156" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G156" s="21"/>
       <c r="H156" s="16"/>
@@ -7127,11 +7124,11 @@
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F161" s="20" t="s">
         <v>48</v>
